--- a/InputFiles/TC09_Bento_MultiFilter_Diagnosis-TumorSize-PRStatus-EndocrineTher-TissueComp.xlsx
+++ b/InputFiles/TC09_Bento_MultiFilter_Diagnosis-TumorSize-PRStatus-EndocrineTher-TissueComp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0233E579-7C15-4D76-B1ED-0C4F8DFB2EDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B974E9D9-2D5E-4D91-9911-BF7262D00094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="10" windowWidth="19140" windowHeight="10190" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -57,55 +57,6 @@
     <t>FilesTab</t>
   </si>
   <si>
-    <t>MATCH (ss:study_subject)
-WITH COLLECT(ss.study_subject_id) AS all_subjects
-MATCH (samp:sample)
-MATCH (samp)-[:sample_of_study_subject]-&gt;(ss)
-MATCH (ss)&lt;-[:sf_of_study_subject]-(sf)
-MATCH (ss)-[:study_subject_of_study]-&gt;(s)-[:study_of_program]-&gt;(p)
-MATCH (samp)&lt;-[:file_of_sample]-(f)-[:file_of_laboratory_procedure]-&gt;(lp)
-MATCH (ss)&lt;-[:diagnosis_of_study_subject]-(d)
-MATCH (d)&lt;-[:tp_of_diagnosis]-(tp)
-WHERE ss.disease_subtype IN ["Tubular Carcinoma"] and d.tumor_size_group In ["(3,4]"] and d.pr_status In ["Positive"] and tp.endocrine_therapy_type IN ["Other"]  and samp.tissue_type in ["Tumor"]
-WITH
-    distinct lp,
-    toInteger(split(ss.study_subject_id,'-')[2]) AS subject_id_num,
-    collect(distinct f.file_id) AS files,
-    samp, ss, s, p, all_subjects
-RETURN
- samp.sample_id AS `Sample ID`,
-            ss.study_subject_id AS `Case ID`,
-            p.program_acronym AS `Program Code`,
-            s.study_acronym AS `Arm`,
-            ss.disease_subtype AS `Diagnosis`,
-            samp.tissue_type AS `Tissue Type`,
-            samp.composition AS `Tissue Composition`,
-            samp.sample_anatomic_site AS `Sample Anatomic Site`,
-            samp.method_of_sample_procurement AS `Sample Procurement Method`,
-            lp.test_name as Platform</t>
-  </si>
-  <si>
-    <t>MATCH (f:file)
-MATCH (f)-[:file_of_sample]-&gt;(samp)
-MATCH (samp)-[:sample_of_study_subject]-&gt;(ss)
-MATCH (ss)-[:study_subject_of_study]-&gt;(s)
-MATCH (ss)&lt;-[:sf_of_study_subject]-(sf)
-MATCH (s)-[:study_of_program]-&gt;(p)
-MATCH (d)-[:diagnosis_of_study_subject]-&gt;(ss)
-MATCH (tp)-[:tp_of_diagnosis]-&gt;(d)
-WHERE ss.disease_subtype IN ["Tubular Carcinoma"] and d.tumor_size_group In ["(3,4]"] and d.pr_status In ["Positive"] and tp.endocrine_therapy_type IN ["Other"] and samp.tissue_type in ["Tumor"]
-RETURN  f.file_name AS `File Name`,
-    head(labels(samp)) AS `Association`,
-    f.file_description AS `Description`,
-    f.file_format AS `File Format`,
-    f.file_size AS `Size`,
-    p.program_acronym AS `Program Code`,
-    s.study_acronym AS `Arm`,
-    ss.study_subject_id AS `Case ID`,
-    samp.sample_id AS `Sample ID`,
-    ss.disease_subtype as `Diagnosis`</t>
-  </si>
-  <si>
     <t>TC09_Bento_MultiFilter_Diagnosis-TumorSize-PRStatus-EndocrineTher-TissueComp_Neo4jData.xlsx</t>
   </si>
   <si>
@@ -155,6 +106,55 @@
 COUNT(DISTINCT samp) AS Samples,
 COUNT(DISTINCT lp) AS Assays,
 COUNT(DISTINCT f) AS Files</t>
+  </si>
+  <si>
+    <t>MATCH (ss:study_subject)
+WITH COLLECT(ss.study_subject_id) AS all_subjects
+MATCH (samp:sample)
+MATCH (samp)-[:sample_of_study_subject]-&gt;(ss)
+MATCH (ss)&lt;-[:sf_of_study_subject]-(sf)
+MATCH (ss)-[:study_subject_of_study]-&gt;(s)-[:study_of_program]-&gt;(p)
+MATCH (samp)&lt;-[:file_of_sample]-(f)-[:file_of_laboratory_procedure]-&gt;(lp)
+MATCH (ss)&lt;-[:diagnosis_of_study_subject]-(d)
+MATCH (d)&lt;-[:tp_of_diagnosis]-(tp)
+WHERE ss.disease_subtype IN ["Tubular Carcinoma"] and d.tumor_size_group In ["(3,4]"] and d.pr_status In ["Positive"] and tp.endocrine_therapy_type IN ["Other"]  and samp.composition in ["Solid Tissue"]
+WITH
+    distinct lp,
+    toInteger(split(ss.study_subject_id,'-')[2]) AS subject_id_num,
+    collect(distinct f.file_id) AS files,
+    samp, ss, s, p, all_subjects
+RETURN
+ samp.sample_id AS `Sample ID`,
+            ss.study_subject_id AS `Case ID`,
+            p.program_acronym AS `Program Code`,
+            s.study_acronym AS `Arm`,
+            ss.disease_subtype AS `Diagnosis`,
+            samp.tissue_type AS `Tissue Type`,
+            samp.composition AS `Tissue Composition`,
+            samp.sample_anatomic_site AS `Sample Anatomic Site`,
+            samp.method_of_sample_procurement AS `Sample Procurement Method`,
+            lp.test_name as Platform</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)
+MATCH (f)-[:file_of_sample]-&gt;(samp)
+MATCH (samp)-[:sample_of_study_subject]-&gt;(ss)
+MATCH (ss)-[:study_subject_of_study]-&gt;(s)
+MATCH (ss)&lt;-[:sf_of_study_subject]-(sf)
+MATCH (s)-[:study_of_program]-&gt;(p)
+MATCH (d)-[:diagnosis_of_study_subject]-&gt;(ss)
+MATCH (tp)-[:tp_of_diagnosis]-&gt;(d)
+WHERE ss.disease_subtype IN ["Tubular Carcinoma"] and d.tumor_size_group In ["(3,4]"] and d.pr_status In ["Positive"] and tp.endocrine_therapy_type IN ["Other"]  and samp.composition in ["Solid Tissue"]
+RETURN  f.file_name AS `File Name`,
+    head(labels(samp)) AS `Association`,
+    f.file_description AS `Description`,
+    f.file_format AS `File Format`,
+    f.file_size AS `Size`,
+    p.program_acronym AS `Program Code`,
+    s.study_acronym AS `Arm`,
+    ss.study_subject_id AS `Case ID`,
+    samp.sample_id AS `Sample ID`,
+    ss.disease_subtype as `Diagnosis`</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,16 +561,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="406" x14ac:dyDescent="0.35">
@@ -578,16 +578,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="333.5" x14ac:dyDescent="0.35">
@@ -595,16 +595,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/InputFiles/TC09_Bento_MultiFilter_Diagnosis-TumorSize-PRStatus-EndocrineTher-TissueComp.xlsx
+++ b/InputFiles/TC09_Bento_MultiFilter_Diagnosis-TumorSize-PRStatus-EndocrineTher-TissueComp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B974E9D9-2D5E-4D91-9911-BF7262D00094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C41D8F4-9DAA-4BC8-A96E-62B0BA5F5513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -63,27 +63,25 @@
     <t>TC09_Bento_MultiFilter_Diagnosis-TumorSize-PRStatus-EndocrineTher-TissueComp_WebData.xlsx</t>
   </si>
   <si>
-    <t>MATCH (ss:study_subject)
+    <t>MATCH (f:file)
+MATCH (f)-[:file_of_sample]-&gt;(samp)
 MATCH (samp)-[:sample_of_study_subject]-&gt;(ss)
-MATCH (ss)&lt;-[:sample_of_study_subject]-(samp:sample)&lt;-[:file_of_sample]-(f)-[:file_of_laboratory_procedure]-&gt;(lp)
-WITH DISTINCT ss, samp, collect(DISTINCT samp.sample_id) AS samples, collect(DISTINCT lp.laboratory_procedure_id) AS lab_procedures, collect(DISTINCT f) AS files
-MATCH (ss)-[:study_subject_of_study]-&gt;(s)-[:study_of_program]-&gt;(p)
+MATCH (ss)-[:study_subject_of_study]-&gt;(s)
 MATCH (ss)&lt;-[:sf_of_study_subject]-(sf)
-MATCH (ss)&lt;-[:diagnosis_of_study_subject]-(d)
-MATCH (d)&lt;-[:tp_of_diagnosis]-(tp)
-MATCH (ss)&lt;-[:demographic_of_study_subject]-(demo)
-WHERE ss.disease_subtype IN ["Tubular Carcinoma"] and d.tumor_size_group In ["(3,4]"] and d.pr_status In ["Positive"] and tp.endocrine_therapy_type IN ["Other"]  and samp.composition in ["Solid Tissue"]
-return DISTINCT ss.study_subject_id as `Case ID`,
-   p.program_acronym as `Program Code`,
-    p.program_id as Program_ID,
-   s.study_acronym as `Arm`,
-   ss.disease_subtype as `Diagnosis`,
-   sf.grouped_recurrence_score AS `Recurrence Score`,
-   d.tumor_size_group AS `tumor_size`,
-   d.er_status AS `ER Status`,
-   d.pr_status AS `PR Status`,
-   demo.age_at_index AS `Age (years)`,
-	demo.survival_time AS `Survival (days)`</t>
+MATCH (s)-[:study_of_program]-&gt;(p)
+MATCH (d)-[:diagnosis_of_study_subject]-&gt;(ss)
+MATCH (tp)-[:tp_of_diagnosis]-&gt;(d)
+WHERE ss.disease_subtype IN ["Tubular Carcinoma"] and d.tumor_size_group In ["(3,4]"] and d.pr_status In ["Positive"] and tp.endocrine_therapy_type IN ["None"]  and samp.composition in ["Solid Tissue"]
+RETURN  f.file_name AS `File Name`,
+    head(labels(samp)) AS `Association`,
+    f.file_description AS `Description`,
+    f.file_format AS `File Format`,
+    f.file_size AS `Size`,
+    p.program_acronym AS `Program Code`,
+    s.study_acronym AS `Arm`,
+    ss.study_subject_id AS `Case ID`,
+    samp.sample_id AS `Sample ID`,
+    ss.disease_subtype as `Diagnosis`</t>
   </si>
   <si>
     <t>MATCH (ss:study_subject)
@@ -93,7 +91,7 @@
 MATCH (ss)&lt;-[:diagnosis_of_study_subject]-(d)
 MATCH (ss)&lt;-[:demographic_of_study_subject]-(demo)
 MATCH (d)&lt;-[:tp_of_diagnosis]-(tp)
-WHERE ss.disease_subtype IN ["Tubular Carcinoma"] and d.tumor_size_group In ["(3,4]"] and d.pr_status In ["Positive"] and tp.endocrine_therapy_type IN ["Other"]  and samp.composition in ["Solid Tissue"]
+WHERE ss.disease_subtype IN ["Tubular Carcinoma"] and d.tumor_size_group In ["(3,4]"] and d.pr_status In ["Positive"] and tp.endocrine_therapy_type IN ["None"]  and samp.composition in ["Solid Tissue"]
 WITH ss 
 MATCH (ss)-[:study_subject_of_study]-&gt;(s)
 MATCH (s)-[:study_of_program]-&gt;(p)
@@ -109,6 +107,29 @@
   </si>
   <si>
     <t>MATCH (ss:study_subject)
+MATCH (samp)-[:sample_of_study_subject]-&gt;(ss)
+MATCH (ss)&lt;-[:sample_of_study_subject]-(samp:sample)&lt;-[:file_of_sample]-(f)-[:file_of_laboratory_procedure]-&gt;(lp)
+WITH DISTINCT ss, samp, collect(DISTINCT samp.sample_id) AS samples, collect(DISTINCT lp.laboratory_procedure_id) AS lab_procedures, collect(DISTINCT f) AS files
+MATCH (ss)-[:study_subject_of_study]-&gt;(s)-[:study_of_program]-&gt;(p)
+MATCH (ss)&lt;-[:sf_of_study_subject]-(sf)
+MATCH (ss)&lt;-[:diagnosis_of_study_subject]-(d)
+MATCH (d)&lt;-[:tp_of_diagnosis]-(tp)
+MATCH (ss)&lt;-[:demographic_of_study_subject]-(demo)
+WHERE ss.disease_subtype IN ["Tubular Carcinoma"] and d.tumor_size_group In ["(3,4]"] and d.pr_status In ["Positive"] and tp.endocrine_therapy_type IN ["None"]  and samp.composition in ["Solid Tissue"]
+return DISTINCT ss.study_subject_id as `Case ID`,
+   p.program_acronym as `Program Code`,
+    p.program_id as Program_ID,
+   s.study_acronym as `Arm`,
+   ss.disease_subtype as `Diagnosis`,
+   sf.grouped_recurrence_score AS `Recurrence Score`,
+   d.tumor_size_group AS `tumor_size`,
+   d.er_status AS `ER Status`,
+   d.pr_status AS `PR Status`,
+   demo.age_at_index AS `Age (years)`,
+	demo.survival_time AS `Survival (days)`</t>
+  </si>
+  <si>
+    <t>MATCH (ss:study_subject)
 WITH COLLECT(ss.study_subject_id) AS all_subjects
 MATCH (samp:sample)
 MATCH (samp)-[:sample_of_study_subject]-&gt;(ss)
@@ -117,7 +138,7 @@
 MATCH (samp)&lt;-[:file_of_sample]-(f)-[:file_of_laboratory_procedure]-&gt;(lp)
 MATCH (ss)&lt;-[:diagnosis_of_study_subject]-(d)
 MATCH (d)&lt;-[:tp_of_diagnosis]-(tp)
-WHERE ss.disease_subtype IN ["Tubular Carcinoma"] and d.tumor_size_group In ["(3,4]"] and d.pr_status In ["Positive"] and tp.endocrine_therapy_type IN ["Other"]  and samp.composition in ["Solid Tissue"]
+WHERE ss.disease_subtype IN ["Tubular Carcinoma"] and d.tumor_size_group In ["(3,4]"] and d.pr_status In ["Positive"] and tp.endocrine_therapy_type IN ["None"]  and samp.composition in ["Solid Tissue"]
 WITH
     distinct lp,
     toInteger(split(ss.study_subject_id,'-')[2]) AS subject_id_num,
@@ -134,27 +155,6 @@
             samp.sample_anatomic_site AS `Sample Anatomic Site`,
             samp.method_of_sample_procurement AS `Sample Procurement Method`,
             lp.test_name as Platform</t>
-  </si>
-  <si>
-    <t>MATCH (f:file)
-MATCH (f)-[:file_of_sample]-&gt;(samp)
-MATCH (samp)-[:sample_of_study_subject]-&gt;(ss)
-MATCH (ss)-[:study_subject_of_study]-&gt;(s)
-MATCH (ss)&lt;-[:sf_of_study_subject]-(sf)
-MATCH (s)-[:study_of_program]-&gt;(p)
-MATCH (d)-[:diagnosis_of_study_subject]-&gt;(ss)
-MATCH (tp)-[:tp_of_diagnosis]-&gt;(d)
-WHERE ss.disease_subtype IN ["Tubular Carcinoma"] and d.tumor_size_group In ["(3,4]"] and d.pr_status In ["Positive"] and tp.endocrine_therapy_type IN ["Other"]  and samp.composition in ["Solid Tissue"]
-RETURN  f.file_name AS `File Name`,
-    head(labels(samp)) AS `Association`,
-    f.file_description AS `Description`,
-    f.file_format AS `File Format`,
-    f.file_size AS `Size`,
-    p.program_acronym AS `Program Code`,
-    s.study_acronym AS `Arm`,
-    ss.study_subject_id AS `Case ID`,
-    samp.sample_id AS `Sample ID`,
-    ss.disease_subtype as `Diagnosis`</t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -578,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -595,7 +595,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>

--- a/InputFiles/TC09_Bento_MultiFilter_Diagnosis-TumorSize-PRStatus-EndocrineTher-TissueComp.xlsx
+++ b/InputFiles/TC09_Bento_MultiFilter_Diagnosis-TumorSize-PRStatus-EndocrineTher-TissueComp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C41D8F4-9DAA-4BC8-A96E-62B0BA5F5513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A11278-F3A2-49C2-B6B8-D6C6EBEEB1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="16354" yWindow="-4860" windowWidth="33120" windowHeight="18120" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -63,27 +63,6 @@
     <t>TC09_Bento_MultiFilter_Diagnosis-TumorSize-PRStatus-EndocrineTher-TissueComp_WebData.xlsx</t>
   </si>
   <si>
-    <t>MATCH (f:file)
-MATCH (f)-[:file_of_sample]-&gt;(samp)
-MATCH (samp)-[:sample_of_study_subject]-&gt;(ss)
-MATCH (ss)-[:study_subject_of_study]-&gt;(s)
-MATCH (ss)&lt;-[:sf_of_study_subject]-(sf)
-MATCH (s)-[:study_of_program]-&gt;(p)
-MATCH (d)-[:diagnosis_of_study_subject]-&gt;(ss)
-MATCH (tp)-[:tp_of_diagnosis]-&gt;(d)
-WHERE ss.disease_subtype IN ["Tubular Carcinoma"] and d.tumor_size_group In ["(3,4]"] and d.pr_status In ["Positive"] and tp.endocrine_therapy_type IN ["None"]  and samp.composition in ["Solid Tissue"]
-RETURN  f.file_name AS `File Name`,
-    head(labels(samp)) AS `Association`,
-    f.file_description AS `Description`,
-    f.file_format AS `File Format`,
-    f.file_size AS `Size`,
-    p.program_acronym AS `Program Code`,
-    s.study_acronym AS `Arm`,
-    ss.study_subject_id AS `Case ID`,
-    samp.sample_id AS `Sample ID`,
-    ss.disease_subtype as `Diagnosis`</t>
-  </si>
-  <si>
     <t>MATCH (ss:study_subject)
 MATCH (samp:sample)
 MATCH (ss)-[:study_subject_of_study]-&gt;(s)-[:study_of_program]-&gt;(p)
@@ -106,27 +85,26 @@
 COUNT(DISTINCT f) AS Files</t>
   </si>
   <si>
-    <t>MATCH (ss:study_subject)
+    <t>MATCH (f:file)
+MATCH (f)-[:file_of_sample]-&gt;(samp)
 MATCH (samp)-[:sample_of_study_subject]-&gt;(ss)
-MATCH (ss)&lt;-[:sample_of_study_subject]-(samp:sample)&lt;-[:file_of_sample]-(f)-[:file_of_laboratory_procedure]-&gt;(lp)
-WITH DISTINCT ss, samp, collect(DISTINCT samp.sample_id) AS samples, collect(DISTINCT lp.laboratory_procedure_id) AS lab_procedures, collect(DISTINCT f) AS files
-MATCH (ss)-[:study_subject_of_study]-&gt;(s)-[:study_of_program]-&gt;(p)
+MATCH (ss)-[:study_subject_of_study]-&gt;(s)
 MATCH (ss)&lt;-[:sf_of_study_subject]-(sf)
-MATCH (ss)&lt;-[:diagnosis_of_study_subject]-(d)
-MATCH (d)&lt;-[:tp_of_diagnosis]-(tp)
-MATCH (ss)&lt;-[:demographic_of_study_subject]-(demo)
+MATCH (s)-[:study_of_program]-&gt;(p)
+MATCH (d)-[:diagnosis_of_study_subject]-&gt;(ss)
+MATCH (tp)-[:tp_of_diagnosis]-&gt;(d)
 WHERE ss.disease_subtype IN ["Tubular Carcinoma"] and d.tumor_size_group In ["(3,4]"] and d.pr_status In ["Positive"] and tp.endocrine_therapy_type IN ["None"]  and samp.composition in ["Solid Tissue"]
-return DISTINCT ss.study_subject_id as `Case ID`,
-   p.program_acronym as `Program Code`,
-    p.program_id as Program_ID,
-   s.study_acronym as `Arm`,
-   ss.disease_subtype as `Diagnosis`,
-   sf.grouped_recurrence_score AS `Recurrence Score`,
-   d.tumor_size_group AS `tumor_size`,
-   d.er_status AS `ER Status`,
-   d.pr_status AS `PR Status`,
-   demo.age_at_index AS `Age (years)`,
-	demo.survival_time AS `Survival (days)`</t>
+RETURN  f.file_name AS `File Name`,
+    head(labels(samp)) AS `Association`,
+    f.file_description AS `Description`,
+    f.file_format AS `File Format`,
+    f.file_size AS `Size`,
+    p.program_acronym AS `Program Code`,
+    s.study_acronym AS `Arm`,
+    ss.study_subject_id AS `Case ID`,
+    samp.sample_id AS `Sample ID`,
+    ss.disease_subtype as `Diagnosis`
+order By f.file_name ASC LIMIT 100</t>
   </si>
   <si>
     <t>MATCH (ss:study_subject)
@@ -154,7 +132,32 @@
             samp.composition AS `Tissue Composition`,
             samp.sample_anatomic_site AS `Sample Anatomic Site`,
             samp.method_of_sample_procurement AS `Sample Procurement Method`,
-            lp.test_name as Platform</t>
+            lp.test_name as Platform
+ order By samp.sample_id ASC LIMIT 100</t>
+  </si>
+  <si>
+    <t>MATCH (ss:study_subject)
+MATCH (samp)-[:sample_of_study_subject]-&gt;(ss)
+MATCH (ss)&lt;-[:sample_of_study_subject]-(samp:sample)&lt;-[:file_of_sample]-(f)-[:file_of_laboratory_procedure]-&gt;(lp)
+WITH DISTINCT ss, samp, collect(DISTINCT samp.sample_id) AS samples, collect(DISTINCT lp.laboratory_procedure_id) AS lab_procedures, collect(DISTINCT f) AS files
+MATCH (ss)-[:study_subject_of_study]-&gt;(s)-[:study_of_program]-&gt;(p)
+MATCH (ss)&lt;-[:sf_of_study_subject]-(sf)
+MATCH (ss)&lt;-[:diagnosis_of_study_subject]-(d)
+MATCH (d)&lt;-[:tp_of_diagnosis]-(tp)
+MATCH (ss)&lt;-[:demographic_of_study_subject]-(demo)
+WHERE ss.disease_subtype IN ["Tubular Carcinoma"] and d.tumor_size_group In ["(3,4]"] and d.pr_status In ["Positive"] and tp.endocrine_therapy_type IN ["None"]  and samp.composition in ["Solid Tissue"]
+return DISTINCT ss.study_subject_id as `Case ID`,
+   p.program_acronym as `Program Code`,
+    p.program_id as Program_ID,
+   s.study_acronym as `Arm`,
+   ss.disease_subtype as `Diagnosis`,
+   sf.grouped_recurrence_score AS `Recurrence Score`,
+   d.tumor_size_group AS `tumor_size`,
+   d.er_status AS `ER Status`,
+   d.pr_status AS `PR Status`,
+   demo.age_at_index AS `Age (years)`,
+	demo.survival_time AS `Survival (days)`
+order By ss.study_subject_id ASC LIMIT 100</t>
   </si>
 </sst>
 </file>
@@ -526,20 +529,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.81640625" customWidth="1"/>
-    <col min="3" max="3" width="60.453125" customWidth="1"/>
-    <col min="4" max="4" width="70.26953125" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.77734375" customWidth="1"/>
+    <col min="3" max="3" width="60.44140625" customWidth="1"/>
+    <col min="4" max="4" width="70.21875" customWidth="1"/>
     <col min="5" max="5" width="53" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -556,15 +559,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -573,15 +576,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="406" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -590,15 +593,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="333.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
